--- a/medicine/Sexualité et sexologie/Creampie/Creampie.xlsx
+++ b/medicine/Sexualité et sexologie/Creampie/Creampie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Creampie (littéralement « tarte à la crème ») est un terme anglophone utilisé dans le jargon pornographique comme synonyme d'« éjaculation interne » pour désigner un écoulement de sperme depuis l'orifice d'une personne après un rapport non protégé.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pratique consiste à avoir un rapport sexuel où l'intervenant masculin ne porte pas de préservatif. Pendant l'orgasme, l'homme ne se retire pas. Il éjacule dans le corps de sa partenaire ou son partenaire, puis se retire. Le sperme coule ensuite à l'extérieur de la vulve, de l'anus ou de la bouche de la ou du partenaire.
 Dans le cas d'une éjaculation interne anale, l'expulsion de sperme porte également le nom de cum fart (« pet de sperme ») ou cum farting (« action de péter du sperme »).
@@ -544,7 +558,9 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pratique du creampie comporte tous les risques de transmission d'IST, puisque nécessitant un rapport non protégé, et de grossesse si 
 au moins l'un des deux partenaires n'est pas convenablement contracepté.
@@ -576,7 +592,9 @@
           <t>Chansons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs chansons font référence à cette pratique dans leurs paroles :
 Bad and Boujee (2016) par Migos et Lil Uzi Vert (qui évoque uniquement la creampie anale)
